--- a/assets/conversation/Present-Perfect-Continuous.xlsx
+++ b/assets/conversation/Present-Perfect-Continuous.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\OneDrive\เอกสาร\GitHub\testgame\assets\conversation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB71EE2-AED5-4BB2-A318-4029EDDF0DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE81115-3433-4505-93D0-16F5E302ECAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A118E7C0-E6DA-445D-BF73-F525DA469D57}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1031,20 +1030,153 @@
     </r>
   </si>
   <si>
+    <t>attending</t>
+  </si>
+  <si>
+    <r>
+      <t>Yeah, I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> has</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> been trying to get at least 7-8 hours of sleep a night, but it's not always easy. I've been having trouble winding down after a long day.</t>
+    </r>
+  </si>
+  <si>
+    <t>Yeah, I've been following it closely. I've been dying to try their famous burger.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Do</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you been following the news about the new restaurant that just opened up downtown?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Same here! I've been hearing great things about it. Have you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> planning on going there soon?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yeah, I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>been thinking about going this weekend.</t>
+    </r>
+  </si>
+  <si>
+    <t>What is Sarah doing right now?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>have</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> been feeling a bit anxious about it, but I'm sure she'll be fine.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Yeah, I've been using </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Duolingo</t>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grammaster</t>
     </r>
     <r>
       <rPr>
@@ -1077,142 +1209,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> weekly language exchange sessions.</t>
-    </r>
-  </si>
-  <si>
-    <t>attending</t>
-  </si>
-  <si>
-    <r>
-      <t>Yeah, I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> has</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> been trying to get at least 7-8 hours of sleep a night, but it's not always easy. I've been having trouble winding down after a long day.</t>
-    </r>
-  </si>
-  <si>
-    <t>Yeah, I've been following it closely. I've been dying to try their famous burger.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Do</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> you been following the news about the new restaurant that just opened up downtown?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Same here! I've been hearing great things about it. Have you </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>be</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> planning on going there soon?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Yeah, I </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">has </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>been thinking about going this weekend.</t>
-    </r>
-  </si>
-  <si>
-    <t>What is Sarah doing right now?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">She </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>have</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> been feeling a bit anxious about it, but I'm sure she'll be fine.</t>
     </r>
   </si>
 </sst>
@@ -1244,10 +1240,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1620,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E8811B-44DC-42BF-A74A-70165A61B52B}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="89" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="90" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1662,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1">
         <v>-1</v>
@@ -1726,7 +1719,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2281,13 +2274,13 @@
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D31" s="1">
         <v>13</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F31" s="1">
         <v>2</v>
@@ -2606,7 +2599,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D46" s="1">
         <v>2</v>
@@ -2627,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -2649,7 +2642,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D48" s="1">
         <v>-1</v>
@@ -2671,7 +2664,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D49" s="1">
         <v>11</v>
@@ -2691,7 +2684,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D50" s="1">
         <v>2</v>
